--- a/documents/最終成果物フォルダ/03_ファイル構成一覧表_フルーツバスケット.xlsx
+++ b/documents/最終成果物フォルダ/03_ファイル構成一覧表_フルーツバスケット.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\フルーツバスケット議事録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\最終成果物フォルダ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C7361F-2FAF-489D-B3B7-E93FC419A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A84A3FE-1D78-410C-AFDB-95BDBE8FF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="792" windowWidth="12012" windowHeight="11076" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -447,12 +447,6 @@
     <t>ユーザー登録画面用JavaScript。</t>
   </si>
   <si>
-    <t>top.js</t>
-  </si>
-  <si>
-    <t>トップ画面用JavaScript。</t>
-  </si>
-  <si>
     <t>store.js</t>
   </si>
   <si>
@@ -773,6 +767,20 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域取得用クラス。</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュトクヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1031,15 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1051,9 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,8 +1063,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1389,7 +1397,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1408,26 +1416,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1">
-      <c r="B2" s="15" t="s">
-        <v>134</v>
+      <c r="B2" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
@@ -1467,9 +1475,9 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C24" si="0">ROW()-2</f>
+        <f t="shared" ref="C3:C25" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1496,7 +1504,7 @@
       <c r="K3" s="3">
         <v>45826</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="16">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1510,7 +1518,7 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1539,21 +1547,21 @@
       <c r="K4" s="3">
         <v>45828</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1582,21 +1590,21 @@
       <c r="K5" s="3">
         <v>45828</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="16">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1625,7 +1633,7 @@
       <c r="K6" s="3">
         <v>45827</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1636,7 +1644,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1648,38 +1656,38 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45825</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45825</v>
+      </c>
+      <c r="K7" s="3">
+        <v>45825</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45825</v>
-      </c>
-      <c r="J7" s="3">
-        <v>45825</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45825</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1708,7 +1716,7 @@
       <c r="K8" s="3">
         <v>45826</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1719,7 +1727,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1">
-      <c r="B9" s="15"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1748,7 +1756,7 @@
       <c r="K9" s="3">
         <v>45826</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1759,7 +1767,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1788,19 +1796,19 @@
       <c r="K10" s="6">
         <v>45825</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="16">
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1829,7 +1837,7 @@
       <c r="K11" s="13">
         <v>45827</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="18">
         <v>1</v>
       </c>
       <c r="M11" s="12" t="s">
@@ -1840,8 +1848,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1">
-      <c r="B12" s="15" t="s">
-        <v>135</v>
+      <c r="B12" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
@@ -1854,7 +1862,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>39</v>
@@ -1871,7 +1879,7 @@
       <c r="K12" s="8">
         <v>45824</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
@@ -1882,7 +1890,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1">
-      <c r="B13" s="15"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1911,7 +1919,7 @@
       <c r="K13" s="3">
         <v>45824</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -1922,7 +1930,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1951,7 +1959,7 @@
       <c r="K14" s="3">
         <v>45824</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="16">
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -1962,7 +1970,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1991,7 +1999,7 @@
       <c r="K15" s="3">
         <v>45824</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="16">
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -2002,7 +2010,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="B16" s="15"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2031,7 +2039,7 @@
       <c r="K16" s="3">
         <v>45824</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="16">
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -2042,7 +2050,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" s="1" customFormat="1">
-      <c r="B17" s="15"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2071,7 +2079,7 @@
       <c r="K17" s="3">
         <v>45824</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="16">
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -2082,7 +2090,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" s="1" customFormat="1">
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2094,10 +2102,10 @@
         <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H18" s="3">
         <v>45824</v>
@@ -2111,7 +2119,7 @@
       <c r="K18" s="3">
         <v>45824</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="16">
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
@@ -2122,7 +2130,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" s="1" customFormat="1">
-      <c r="B19" s="15"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2151,7 +2159,7 @@
       <c r="K19" s="3">
         <v>45824</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="16">
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
@@ -2161,130 +2169,130 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="12">
+    <row r="20" spans="2:14" s="1" customFormat="1">
+      <c r="B20" s="23"/>
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="F20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="3">
         <v>45824</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="3">
         <v>45824</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="3">
         <v>45824</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="3">
         <v>45824</v>
       </c>
-      <c r="L20" s="21">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B21" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="L20" s="16">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B21" s="24"/>
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="8">
-        <v>45825</v>
-      </c>
-      <c r="I21" s="8">
-        <v>45825</v>
-      </c>
-      <c r="J21" s="8">
-        <v>45825</v>
-      </c>
-      <c r="K21" s="8">
-        <v>45826</v>
-      </c>
-      <c r="L21" s="20">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" ht="36">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2">
+      <c r="E21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45824</v>
+      </c>
+      <c r="I21" s="13">
+        <v>45824</v>
+      </c>
+      <c r="J21" s="13">
+        <v>45824</v>
+      </c>
+      <c r="K21" s="13">
+        <v>45824</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="B22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45825</v>
-      </c>
-      <c r="J22" s="3">
-        <v>45825</v>
-      </c>
-      <c r="K22" s="3">
-        <v>45828</v>
-      </c>
-      <c r="L22" s="19">
+      <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="8">
+        <v>45825</v>
+      </c>
+      <c r="I22" s="8">
+        <v>45825</v>
+      </c>
+      <c r="J22" s="8">
+        <v>45825</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45826</v>
+      </c>
+      <c r="L22" s="17">
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="1" customFormat="1" ht="36">
-      <c r="B23" s="15"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2296,10 +2304,10 @@
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="3">
         <v>45825</v>
@@ -2311,20 +2319,20 @@
         <v>45825</v>
       </c>
       <c r="K23" s="3">
-        <v>45827</v>
-      </c>
-      <c r="L23" s="19">
+        <v>45828</v>
+      </c>
+      <c r="L23" s="16">
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="1" customFormat="1">
-      <c r="B24" s="15"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="1" customFormat="1" ht="36">
+      <c r="B24" s="23"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2336,10 +2344,10 @@
         <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H24" s="3">
         <v>45825</v>
@@ -2348,25 +2356,25 @@
         <v>45825</v>
       </c>
       <c r="J24" s="3">
-        <v>45826</v>
+        <v>45825</v>
       </c>
       <c r="K24" s="3">
         <v>45827</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <v>1</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" ht="36">
-      <c r="B25" s="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="1" customFormat="1">
+      <c r="B25" s="23"/>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2376,10 +2384,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="H25" s="3">
         <v>45825</v>
@@ -2388,25 +2396,25 @@
         <v>45825</v>
       </c>
       <c r="J25" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="K25" s="3">
-        <v>45826</v>
-      </c>
-      <c r="L25" s="19">
+        <v>45827</v>
+      </c>
+      <c r="L25" s="16">
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="1" customFormat="1">
-      <c r="B26" s="15"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="1" customFormat="1" ht="36">
+      <c r="B26" s="23"/>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:C67" si="2">ROW()-2</f>
+        <f t="shared" ref="C26" si="1">ROW()-2</f>
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2416,10 +2424,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="H26" s="3">
         <v>45825</v>
@@ -2433,100 +2441,100 @@
       <c r="K26" s="3">
         <v>45826</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="16">
         <v>1</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="1" customFormat="1">
+      <c r="B27" s="23"/>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:C67" si="2">ROW()-2</f>
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45825</v>
+      </c>
+      <c r="J27" s="3">
+        <v>45825</v>
+      </c>
+      <c r="K27" s="3">
+        <v>45826</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="12">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="13">
-        <v>45825</v>
-      </c>
-      <c r="I27" s="13">
-        <v>45825</v>
-      </c>
-      <c r="J27" s="13">
-        <v>45825</v>
-      </c>
-      <c r="K27" s="13">
-        <v>45826</v>
-      </c>
-      <c r="L27" s="21">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="1" customFormat="1">
-      <c r="B28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="7">
+    <row r="28" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B28" s="24"/>
+      <c r="C28" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="8">
-        <v>45827</v>
-      </c>
-      <c r="I28" s="8">
-        <v>45828</v>
-      </c>
-      <c r="J28" s="8">
-        <v>45825</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="D28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45825</v>
+      </c>
+      <c r="I28" s="13">
+        <v>45825</v>
+      </c>
+      <c r="J28" s="13">
+        <v>45825</v>
+      </c>
+      <c r="K28" s="13">
         <v>45826</v>
       </c>
-      <c r="L28" s="20">
-        <v>1</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>16</v>
+      <c r="L28" s="18">
+        <v>1</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:14" s="1" customFormat="1">
-      <c r="B29" s="15"/>
+      <c r="B29" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="C29" s="7">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2535,27 +2543,27 @@
         <v>71</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="H29" s="8">
+        <v>45827</v>
+      </c>
+      <c r="I29" s="8">
         <v>45828</v>
       </c>
-      <c r="I29" s="3">
-        <v>45828</v>
-      </c>
       <c r="J29" s="8">
-        <v>45828</v>
-      </c>
-      <c r="K29" s="3">
-        <v>45828</v>
-      </c>
-      <c r="L29" s="19">
+        <v>45825</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45826</v>
+      </c>
+      <c r="L29" s="17">
         <v>1</v>
       </c>
       <c r="M29" s="7" t="s">
@@ -2566,47 +2574,47 @@
       </c>
     </row>
     <row r="30" spans="2:14" s="1" customFormat="1">
-      <c r="B30" s="15"/>
-      <c r="C30" s="2">
+      <c r="B30" s="23"/>
+      <c r="C30" s="7">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="3">
-        <v>45827</v>
+      <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="8">
+        <v>45828</v>
       </c>
       <c r="I30" s="3">
         <v>45828</v>
       </c>
-      <c r="J30" s="3">
-        <v>45827</v>
+      <c r="J30" s="8">
+        <v>45828</v>
       </c>
       <c r="K30" s="3">
         <v>45828</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="16">
         <v>1</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>141</v>
+      <c r="N30" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:14" s="1" customFormat="1">
-      <c r="B31" s="15"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2618,10 +2626,10 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H31" s="3">
         <v>45827</v>
@@ -2635,18 +2643,18 @@
       <c r="K31" s="3">
         <v>45828</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="16">
         <v>1</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="1" customFormat="1">
-      <c r="B32" s="15"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2658,10 +2666,10 @@
         <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H32" s="3">
         <v>45827</v>
@@ -2675,18 +2683,18 @@
       <c r="K32" s="3">
         <v>45828</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="16">
         <v>1</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="1" customFormat="1">
-      <c r="B33" s="15"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2695,13 +2703,13 @@
         <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" s="3">
         <v>45827</v>
@@ -2715,18 +2723,18 @@
       <c r="K33" s="3">
         <v>45828</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="16">
         <v>1</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:14" s="1" customFormat="1">
-      <c r="B34" s="15"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2735,13 +2743,13 @@
         <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H34" s="3">
         <v>45827</v>
@@ -2755,18 +2763,18 @@
       <c r="K34" s="3">
         <v>45828</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="16">
         <v>1</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="1" customFormat="1">
-      <c r="B35" s="15"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2778,10 +2786,10 @@
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H35" s="3">
         <v>45827</v>
@@ -2795,7 +2803,7 @@
       <c r="K35" s="3">
         <v>45828</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="16">
         <v>1</v>
       </c>
       <c r="M35" s="7" t="s">
@@ -2806,7 +2814,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" s="1" customFormat="1">
-      <c r="B36" s="15"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2818,10 +2826,10 @@
         <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="3">
         <v>45827</v>
@@ -2835,7 +2843,7 @@
       <c r="K36" s="3">
         <v>45828</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="16">
         <v>1</v>
       </c>
       <c r="M36" s="7" t="s">
@@ -2845,130 +2853,130 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B37" s="16"/>
-      <c r="C37" s="12">
+    <row r="37" spans="2:14" s="1" customFormat="1">
+      <c r="B37" s="23"/>
+      <c r="C37" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="13">
-        <v>45827</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="F37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45827</v>
+      </c>
+      <c r="I37" s="3">
         <v>45828</v>
       </c>
-      <c r="J37" s="13">
-        <v>45827</v>
-      </c>
-      <c r="K37" s="13">
+      <c r="J37" s="3">
+        <v>45827</v>
+      </c>
+      <c r="K37" s="3">
         <v>45828</v>
       </c>
-      <c r="L37" s="21">
-        <v>1</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" s="1" customFormat="1">
-      <c r="B38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="L37" s="16">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="B38" s="24"/>
+      <c r="C38" s="12">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="8">
-        <v>45827</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="D38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45827</v>
+      </c>
+      <c r="I38" s="13">
         <v>45828</v>
       </c>
-      <c r="J38" s="8">
-        <v>45825</v>
-      </c>
-      <c r="K38" s="8">
-        <v>45826</v>
-      </c>
-      <c r="L38" s="20">
-        <v>1</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>16</v>
+      <c r="J38" s="13">
+        <v>45827</v>
+      </c>
+      <c r="K38" s="13">
+        <v>45828</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:14" s="1" customFormat="1">
-      <c r="B39" s="15"/>
-      <c r="C39" s="2">
+      <c r="B39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="7">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="3">
-        <v>45827</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="F39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="8">
+        <v>45827</v>
+      </c>
+      <c r="I39" s="8">
         <v>45828</v>
       </c>
       <c r="J39" s="8">
-        <v>45828</v>
-      </c>
-      <c r="K39" s="3">
-        <v>45828</v>
-      </c>
-      <c r="L39" s="19">
+        <v>45825</v>
+      </c>
+      <c r="K39" s="8">
+        <v>45826</v>
+      </c>
+      <c r="L39" s="17">
         <v>1</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>141</v>
+      <c r="N39" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="1" customFormat="1">
-      <c r="B40" s="15"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -2980,10 +2988,10 @@
         <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H40" s="3">
         <v>45827</v>
@@ -2991,24 +2999,24 @@
       <c r="I40" s="3">
         <v>45828</v>
       </c>
-      <c r="J40" s="3">
-        <v>45827</v>
+      <c r="J40" s="8">
+        <v>45828</v>
       </c>
       <c r="K40" s="3">
         <v>45828</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="16">
         <v>1</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:14" s="1" customFormat="1">
-      <c r="B41" s="15"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3020,10 +3028,10 @@
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41" s="3">
         <v>45827</v>
@@ -3037,18 +3045,18 @@
       <c r="K41" s="3">
         <v>45828</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="16">
         <v>1</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:14" s="1" customFormat="1">
-      <c r="B42" s="15"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3060,10 +3068,10 @@
         <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H42" s="3">
         <v>45827</v>
@@ -3077,18 +3085,18 @@
       <c r="K42" s="3">
         <v>45828</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="16">
         <v>1</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:14" s="1" customFormat="1">
-      <c r="B43" s="15"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3100,10 +3108,10 @@
         <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="3">
         <v>45827</v>
@@ -3117,18 +3125,18 @@
       <c r="K43" s="3">
         <v>45828</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="16">
         <v>1</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:14" s="1" customFormat="1">
-      <c r="B44" s="15"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3140,10 +3148,10 @@
         <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H44" s="3">
         <v>45827</v>
@@ -3157,7 +3165,7 @@
       <c r="K44" s="3">
         <v>45828</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="16">
         <v>1</v>
       </c>
       <c r="M44" s="7" t="s">
@@ -3168,7 +3176,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" s="1" customFormat="1">
-      <c r="B45" s="15"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3180,10 +3188,10 @@
         <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H45" s="3">
         <v>45827</v>
@@ -3197,18 +3205,18 @@
       <c r="K45" s="3">
         <v>45828</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="16">
         <v>1</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:14" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B46" s="16"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3220,10 +3228,10 @@
         <v>93</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H46" s="13">
         <v>45827</v>
@@ -3237,7 +3245,7 @@
       <c r="K46" s="13">
         <v>45828</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="18">
         <v>1</v>
       </c>
       <c r="M46" s="12" t="s">
@@ -3248,24 +3256,24 @@
       </c>
     </row>
     <row r="47" spans="2:14" s="1" customFormat="1">
-      <c r="B47" s="15" t="s">
-        <v>112</v>
+      <c r="B47" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H47" s="8">
         <v>45825</v>
@@ -3279,33 +3287,33 @@
       <c r="K47" s="8">
         <v>45826</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="17">
         <v>1</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:14" s="1" customFormat="1">
-      <c r="B48" s="15"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H48" s="3">
         <v>45825</v>
@@ -3319,33 +3327,33 @@
       <c r="K48" s="3">
         <v>45826</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="16">
         <v>1</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="2:14" s="1" customFormat="1">
-      <c r="B49" s="15"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H49" s="3">
         <v>45826</v>
@@ -3359,33 +3367,33 @@
       <c r="K49" s="3">
         <v>45827</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="16">
         <v>1</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="2:14" s="1" customFormat="1">
-      <c r="B50" s="15"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" s="3">
         <v>45827</v>
@@ -3399,33 +3407,33 @@
       <c r="K50" s="3">
         <v>45828</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="16">
         <v>1</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="1" customFormat="1">
-      <c r="B51" s="15"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H51" s="3">
         <v>45831</v>
@@ -3439,33 +3447,33 @@
       <c r="K51" s="3">
         <v>45831</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="16">
         <v>1</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="2:14" s="1" customFormat="1">
-      <c r="B52" s="15"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H52" s="3">
         <v>45831</v>
@@ -3479,33 +3487,33 @@
       <c r="K52" s="3">
         <v>45831</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="16">
         <v>1</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="2:14" s="1" customFormat="1">
-      <c r="B53" s="15"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" s="3">
         <v>45832</v>
@@ -3519,33 +3527,33 @@
       <c r="K53" s="3">
         <v>45832</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="16">
         <v>1</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="2:14" s="1" customFormat="1">
-      <c r="B54" s="15"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H54" s="3">
         <v>45832</v>
@@ -3559,7 +3567,7 @@
       <c r="K54" s="3">
         <v>45832</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="16">
         <v>1</v>
       </c>
       <c r="M54" s="7" t="s">
@@ -3570,22 +3578,22 @@
       </c>
     </row>
     <row r="55" spans="2:14" s="1" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="B55" s="16"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H55" s="13">
         <v>45824</v>
@@ -3599,7 +3607,7 @@
       <c r="K55" s="13">
         <v>45825</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="18">
         <v>1</v>
       </c>
       <c r="M55" s="12" t="s">
@@ -3610,24 +3618,24 @@
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="22" t="s">
-        <v>154</v>
+      <c r="B56" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H56" s="8">
         <v>45827</v>
@@ -3641,33 +3649,33 @@
       <c r="K56" s="8">
         <v>45827</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="17">
         <v>1</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="23"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H57" s="8">
         <v>45827</v>
@@ -3681,33 +3689,33 @@
       <c r="K57" s="8">
         <v>45827</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="17">
         <v>1</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="23"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H58" s="8">
         <v>45827</v>
@@ -3721,33 +3729,33 @@
       <c r="K58" s="8">
         <v>45827</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="17">
         <v>1</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H59" s="8">
         <v>45827</v>
@@ -3761,33 +3769,33 @@
       <c r="K59" s="8">
         <v>45827</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="17">
         <v>1</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H60" s="8">
         <v>45827</v>
@@ -3801,33 +3809,33 @@
       <c r="K60" s="8">
         <v>45827</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="17">
         <v>1</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H61" s="8">
         <v>45827</v>
@@ -3841,33 +3849,33 @@
       <c r="K61" s="8">
         <v>45827</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="17">
         <v>1</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="23"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H62" s="8">
         <v>45827</v>
@@ -3881,33 +3889,33 @@
       <c r="K62" s="8">
         <v>45827</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="17">
         <v>1</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="23"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H63" s="8">
         <v>45827</v>
@@ -3921,33 +3929,33 @@
       <c r="K63" s="8">
         <v>45827</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="17">
         <v>1</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H64" s="8">
         <v>45827</v>
@@ -3961,34 +3969,34 @@
       <c r="K64" s="8">
         <v>45827</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="17">
         <v>1</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="H65" s="8">
         <v>45827</v>
       </c>
@@ -4001,34 +4009,34 @@
       <c r="K65" s="8">
         <v>45827</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="17">
         <v>1</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H66" s="8">
         <v>45827</v>
       </c>
@@ -4041,33 +4049,33 @@
       <c r="K66" s="8">
         <v>45827</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="17">
         <v>1</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="18.600000000000001" thickBot="1">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25">
+      <c r="B67" s="22"/>
+      <c r="C67" s="19">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H67" s="13">
         <v>45827</v>
@@ -4081,14 +4089,14 @@
       <c r="K67" s="13">
         <v>45827</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
       <c r="M67" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:14">
@@ -4358,18 +4366,18 @@
       <c r="N86" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N35" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:N84">
-      <sortCondition ref="E2:E35"/>
+  <autoFilter ref="C2:N36" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:N85">
+      <sortCondition ref="E2:E36"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="B56:B67"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="B39:B46"/>
     <mergeCell ref="B47:B55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -4379,16 +4387,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4559,6 +4562,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4569,15 +4578,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4596,6 +4596,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
